--- a/data/trans_bre/P16A10-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 2,88</t>
+          <t>-3,46; 3,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -2,81</t>
+          <t>-7,83; -2,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,77</t>
+          <t>-4,09; 2,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; -0,47</t>
+          <t>-4,22; -0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,38; 92,89</t>
+          <t>-62,34; 90,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -59,05</t>
+          <t>-100,0; -50,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-57,73; 70,45</t>
+          <t>-56,63; 64,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,28; -9,25</t>
+          <t>-70,46; -7,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,45</t>
+          <t>-4,41; 0,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,67</t>
+          <t>-5,68; -0,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; -0,45</t>
+          <t>-6,03; -0,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; -1,19</t>
+          <t>-5,25; -1,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-84,59; 38,7</t>
+          <t>-88,48; 33,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1,38</t>
+          <t>-100,0; 5,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-89,2; 0,68</t>
+          <t>-88,39; 9,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,06; -30,91</t>
+          <t>-83,96; -32,19</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 1,35</t>
+          <t>-5,64; 1,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 1,44</t>
+          <t>-4,96; 1,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 3,18</t>
+          <t>-5,64; 3,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 8,98</t>
+          <t>-2,26; 9,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-77,8; 35,95</t>
+          <t>-77,89; 33,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-74,22; 32,7</t>
+          <t>-69,83; 28,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,04; 57,93</t>
+          <t>-72,14; 67,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-26,87; 402,2</t>
+          <t>-32,67; 441,52</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -1,05</t>
+          <t>-5,23; -1,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,65; -1,19</t>
+          <t>-4,79; -1,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,41; -1,3</t>
+          <t>-5,48; -1,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,46; -2,46</t>
+          <t>-6,35; -2,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-63,18; -16,25</t>
+          <t>-62,99; -15,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,73; -21,34</t>
+          <t>-71,4; -24,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,47; -21,03</t>
+          <t>-67,22; -20,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-80,07; -38,97</t>
+          <t>-80,22; -38,84</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 3,89</t>
+          <t>-2,18; 4,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 4,9</t>
+          <t>-0,6; 5,15</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 1,41</t>
+          <t>-3,79; 1,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 2,86</t>
+          <t>-2,15; 2,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 105,25</t>
+          <t>-32,52; 109,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 112,77</t>
+          <t>-10,37; 122,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-46,93; 26,47</t>
+          <t>-47,07; 26,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,83; 58,0</t>
+          <t>-27,51; 57,74</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,37</t>
+          <t>5,15; 8,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,43</t>
+          <t>1,36; 6,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 9,98</t>
+          <t>6,43; 9,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,06</t>
+          <t>6,61; 9,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,44; 888,64</t>
+          <t>7,08; 973,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>508,04; —</t>
+          <t>518,43; —</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 0,96</t>
+          <t>-1,24; 0,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,45</t>
+          <t>-1,59; 0,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,61</t>
+          <t>-1,74; 0,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 1,16</t>
+          <t>-1,46; 1,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 20,3</t>
+          <t>-21,22; 18,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 9,48</t>
+          <t>-27,28; 11,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,55; 11,21</t>
+          <t>-25,96; 11,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 24,88</t>
+          <t>-24,59; 23,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A10-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A10-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
